--- a/excel/assignments/Assignment8_Workbook.xlsx
+++ b/excel/assignments/Assignment8_Workbook.xlsx
@@ -19,68 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Price Per Unit</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Total Cost</t>
   </si>
   <si>
-    <t>Date Ordered</t>
-  </si>
-  <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Delivery Time</t>
-  </si>
-  <si>
-    <t>Tomatoes (case of 12)</t>
-  </si>
-  <si>
-    <t>Black Beans (case of 10)</t>
-  </si>
-  <si>
-    <t>All Purpose Flour (50 lb.)</t>
-  </si>
-  <si>
-    <t>Corn Meal/Maza (25 lb.)</t>
-  </si>
-  <si>
-    <t>Brown Rice (25 lb.)</t>
-  </si>
-  <si>
-    <t>Lime Juice (1 gallon)</t>
-  </si>
-  <si>
-    <t>Tomato Juice (case of 10)</t>
-  </si>
-  <si>
-    <t>Bottled Water (case of 24)</t>
-  </si>
-  <si>
-    <t>Hot Sauce (1 gallon)</t>
-  </si>
-  <si>
-    <t>Salsa, Medium (1 gallon)</t>
-  </si>
-  <si>
-    <t>Salsa, Hot (1 gallon)</t>
-  </si>
-  <si>
-    <t>Olive Oil (2.5 gallon)</t>
-  </si>
-  <si>
-    <t>Vegetable Wash (1 gallon)</t>
-  </si>
-  <si>
     <t>Average Price Per Unit</t>
   </si>
   <si>
@@ -93,21 +36,82 @@
     <t>Most Expensive Item</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                   Food Supply Inventory Orders (Non-Perishable Items)</t>
-  </si>
-  <si>
     <t>Average Shipping Time (Days)</t>
   </si>
   <si>
     <t>Quantity of Items Ordered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                   Essen Lagerhaltung</t>
+  </si>
+  <si>
+    <t>Artikel</t>
+  </si>
+  <si>
+    <t>Menge</t>
+  </si>
+  <si>
+    <t>Einzelpreis</t>
+  </si>
+  <si>
+    <t>Gesamtkosten</t>
+  </si>
+  <si>
+    <t>Bestelldatum</t>
+  </si>
+  <si>
+    <t>Lieferdatum</t>
+  </si>
+  <si>
+    <t>Zustellungsdauer</t>
+  </si>
+  <si>
+    <t>Schwarze Bohnen (10er Pack)</t>
+  </si>
+  <si>
+    <t>Tomaten (12er Pack</t>
+  </si>
+  <si>
+    <t>Mehl (50 Pfund)</t>
+  </si>
+  <si>
+    <t>Maismehl (25 Pfund)</t>
+  </si>
+  <si>
+    <t>Brauner Reis (25 Pfund)</t>
+  </si>
+  <si>
+    <t>Zitronensaft (1L)</t>
+  </si>
+  <si>
+    <t>Tomatensaft (10er Pack)</t>
+  </si>
+  <si>
+    <t>Mineralwasser (24er Pack)</t>
+  </si>
+  <si>
+    <t>Scharfe Soße (1L)</t>
+  </si>
+  <si>
+    <t>Salsa, Medium (1L)</t>
+  </si>
+  <si>
+    <t>Salsa, Scharf (1L)</t>
+  </si>
+  <si>
+    <t>Olivenöl (2,5L)</t>
+  </si>
+  <si>
+    <t>Gemüsebrühe (1L)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -353,17 +357,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -379,7 +377,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -414,6 +411,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -751,7 +755,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,405 +763,405 @@
     <col min="1" max="1" width="32.140625" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
+      <c r="A1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4">
         <v>3</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="31">
         <v>17.440000000000001</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="32">
         <f>B3*C3</f>
         <v>52.320000000000007</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>41498</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>41501</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="6">
         <f>NETWORKDAYS(E3,F3)</f>
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4">
         <v>5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="31">
         <v>20.14</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="32">
         <f t="shared" ref="D4:D15" si="0">B4*C4</f>
         <v>100.7</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>41498</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>41503</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <f t="shared" ref="G4:G15" si="1">NETWORKDAYS(E4,F4)</f>
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="31">
         <v>14.05</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="32">
         <f t="shared" si="0"/>
         <v>70.25</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>41498</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>41500</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="31">
         <v>18.690000000000001</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="32">
         <f t="shared" si="0"/>
         <v>93.45</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>41498</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>41501</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="31">
         <v>10.99</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="32">
         <f t="shared" si="0"/>
         <v>54.95</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>41498</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>41501</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6">
         <v>5</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="32">
         <v>11.99</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="32">
         <f t="shared" si="0"/>
         <v>59.95</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>41502</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>41506</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="8">
+      <c r="A9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6">
         <v>3</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="32">
         <v>19.489999999999998</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="32">
         <f t="shared" si="0"/>
         <v>58.47</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>41502</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>41505</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="8">
+      <c r="A10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6">
         <v>15</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="32">
         <v>2.4900000000000002</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="32">
         <f t="shared" si="0"/>
         <v>37.35</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>41502</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>41508</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="6">
         <v>8</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="32">
         <v>7.35</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="32">
         <f t="shared" si="0"/>
         <v>58.8</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>41502</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>41505</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="8">
+      <c r="A12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="6">
         <v>12</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="32">
         <v>8.4700000000000006</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="32">
         <f t="shared" si="0"/>
         <v>101.64000000000001</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>41505</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>41509</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="6">
         <v>6</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="32">
         <v>9.59</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="32">
         <f t="shared" si="0"/>
         <v>57.54</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>41505</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <v>41508</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="8">
+      <c r="A14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="6">
         <v>4</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="32">
         <v>28.69</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="32">
         <f t="shared" si="0"/>
         <v>114.76</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>41505</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <v>41510</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="9">
+      <c r="A15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="7">
         <v>2</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="33">
         <v>8.99</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="32">
         <f t="shared" si="0"/>
         <v>17.98</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>41505</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <v>41507</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="14"/>
+      <c r="A16" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="11">
+      <c r="A17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="36">
         <f>AVERAGE(C3:C15)</f>
         <v>13.720769230769228</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="26"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="15">
+      <c r="A18" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="37">
         <f>SUM(D3:D15)</f>
         <v>878.16</v>
       </c>
@@ -1166,37 +1170,37 @@
       <c r="J18" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="37"/>
+      <c r="A21" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="30"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="17">
+      <c r="A22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="11">
         <f>COUNTA(A3:A15)</f>
         <v>13</v>
       </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="19"/>
+      <c r="A23" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="13"/>
     </row>
     <row r="24" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="20"/>
+      <c r="A24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="14"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
